--- a/infiles/members.xlsx
+++ b/infiles/members.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hama/devel/ttc/qiita/cows/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hama/devel/ttc/qiita/cows/infiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F557AB7A-0969-5D44-BCED-50314A6057E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1A671A-68ED-BC45-AFAD-BB759D2EE4F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="5920" windowWidth="38400" windowHeight="21100" xr2:uid="{F9122C22-598E-2E4D-ABAE-D456D37DEA14}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{F9122C22-598E-2E4D-ABAE-D456D37DEA14}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021年名簿" sheetId="2" r:id="rId1"/>
+    <sheet name="2021年メッセージ" sheetId="3" r:id="rId1"/>
+    <sheet name="2021年名簿" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>東京都</t>
   </si>
@@ -241,6 +242,123 @@
     <t>県名</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ケンメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今年もよろしくお願いします。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コトシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昨年は大変お世話になりました。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サクネン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">タイヘンオセワニナリマシタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今年は海外でお会いしましょう。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コトシハ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">カイガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早寝早起きして健康に留意してください。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハヤネ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ハヤオキ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ケンコウ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">リュウイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お酒の飲み過ぎに注意しましょう。おたがいに。</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ノミスギニチュウイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今年こそ、一緒に釣りに行きましょう。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コトシ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イッショニ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ツリニ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">イキマショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昨年は公私ともにお世話になりました。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サクネンハ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">コウシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族一同、お世話になりました。今年もよろしく。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カゾク </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">イチドウ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">コトシモヨロシク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年末はお互い飲み過ぎましたが、大丈夫ですか?</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ネンマツ </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ノミスギマシタガ </t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t xml:space="preserve">ダイジョウブデスカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご無沙汰しています。今年こそお会いしましょう。</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">コトシ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -632,11 +750,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF822BCE-A3FF-0E46-A5DD-70F862F30110}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71A9083-6DFD-F043-BB86-62FED52F6FBC}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF822BCE-A3FF-0E46-A5DD-70F862F30110}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -648,7 +975,7 @@
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -668,7 +995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -688,7 +1015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -708,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -728,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -748,7 +1075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -768,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -788,7 +1115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
@@ -808,7 +1135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -828,7 +1155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
@@ -848,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -866,6 +1193,9 @@
       </c>
       <c r="F11" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
